--- a/biology/Botanique/Heterocapsaceae/Heterocapsaceae.xlsx
+++ b/biology/Botanique/Heterocapsaceae/Heterocapsaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heterocapsaceae sont une famille d'algues dinoflagellées de l’ordre des Peridiniales.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Heterocapsaceae a été créée en 1993 par Robert A. Fensome (d), Frank John Rupert Taylor (d), Geoffrey Norris (d), William Antony Swithin Sarjeant (d), D.I.Wharton et Graham Lee Williams (d).
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Heterocapsa, construit à partir du préfixe hetero-, « variable ; différent » , et du suffixe -capsa, boite.
 </t>
@@ -573,12 +589,14 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (11 janvier 2022)[1] et BioLib                    (12 janvier 2022)[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (11 janvier 2022) et BioLib                    (12 janvier 2022)
 Heterocapsa F.Stein, 1883
 environ 25 espèces
-Selon NCBI  (12 janvier 2022)[3] :
+Selon NCBI  (12 janvier 2022) :
 genre Cachonina
 genre Heterocapsa Stein, 1883</t>
         </is>
